--- a/Excel分sheet用例模板.xlsx
+++ b/Excel分sheet用例模板.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVN\QA\05.项目文档\武汉兴业\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Code\Python\Work\Metersphere-TC-Conversion\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A244FF-B839-434A-81EB-DFC741D688D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9345" tabRatio="830"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例" sheetId="19" r:id="rId1"/>
@@ -21,18 +22,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -41,6 +43,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -48,13 +51,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -63,6 +67,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -70,13 +75,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -85,6 +91,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -92,13 +99,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -107,6 +115,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -126,6 +135,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>用例编写的日期（年月日）</t>
@@ -143,6 +153,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>自增序号
@@ -150,13 +161,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -165,6 +177,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -172,13 +185,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -187,6 +201,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -194,13 +209,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -209,6 +225,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -216,13 +233,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -231,6 +249,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -309,21 +328,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">武汉分行综合考评系统业务测试报告    </t>
-  </si>
-  <si>
     <t>测试系统:</t>
   </si>
   <si>
-    <t>武汉分行综合考评系统</t>
-  </si>
-  <si>
     <t>测试人员:</t>
   </si>
   <si>
-    <t>杨万昌</t>
-  </si>
-  <si>
     <t>测试日期:</t>
   </si>
   <si>
@@ -469,13 +479,39 @@
   </si>
   <si>
     <t>下载条线考核导入数据模板，填写数据后导入</t>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XX</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">综合考评系统业务测试报告    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合考评系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -535,18 +571,49 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -764,12 +831,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -784,7 +851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -799,7 +866,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -817,102 +884,105 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_pc9222维护测试报告" xfId="1"/>
-    <cellStyle name="常规_信贷资产转让代管理技术测试" xfId="2"/>
+    <cellStyle name="常规_pc9222维护测试报告" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规_信贷资产转让代管理技术测试" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1214,11 +1284,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1610,337 +1680,337 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.95" customHeight="1">
+      <c r="A2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.95" customHeight="1">
-      <c r="A2" s="34" t="s">
+      <c r="B2" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="E2" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
+    </row>
+    <row r="3" spans="1:7" ht="21" customHeight="1">
+      <c r="A3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="34" t="s">
+      <c r="B3" s="31">
+        <v>45112</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
-    </row>
-    <row r="3" spans="1:7" ht="21" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="32"/>
+    </row>
+    <row r="4" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="40">
-        <v>45112</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="1:7" ht="23.25" customHeight="1">
+      <c r="A5" s="19">
+        <v>1</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="41"/>
-    </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A4" s="34" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A6" s="19">
+        <v>2</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-    </row>
-    <row r="5" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A5" s="43">
-        <v>1</v>
-      </c>
-      <c r="B5" s="44" t="s">
+      <c r="C7" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-    </row>
-    <row r="6" spans="1:7" ht="26.25" customHeight="1">
-      <c r="A6" s="43">
-        <v>2</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="45" t="s">
+      <c r="D7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="F7" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="G7" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="46" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="28.5">
+      <c r="A8" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="D8" s="24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.5">
-      <c r="A8" s="48" t="s">
+      <c r="E8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49" t="s">
+      <c r="F8" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:7" ht="28.5">
+      <c r="A9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="D9" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="50"/>
-    </row>
-    <row r="9" spans="1:7" ht="28.5">
-      <c r="A9" s="48" t="s">
+      <c r="E9" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="1:7" ht="28.5">
+      <c r="A10" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D10" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="50"/>
-    </row>
-    <row r="10" spans="1:7" ht="28.5">
-      <c r="A10" s="48" t="s">
+      <c r="E10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="1:7" ht="28.5">
+      <c r="A11" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D11" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="50"/>
-    </row>
-    <row r="11" spans="1:7" ht="28.5">
-      <c r="A11" s="48" t="s">
+      <c r="E11" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="1:7" ht="28.5">
+      <c r="A12" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="49" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D12" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="50"/>
-    </row>
-    <row r="12" spans="1:7" ht="28.5">
-      <c r="A12" s="48" t="s">
+      <c r="E12" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="1:7" ht="28.5">
+      <c r="A13" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="49" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D13" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="50"/>
-    </row>
-    <row r="13" spans="1:7" ht="28.5">
-      <c r="A13" s="48" t="s">
+      <c r="E13" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="1:7" ht="28.5">
+      <c r="A14" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="49" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D14" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="50"/>
-    </row>
-    <row r="14" spans="1:7" ht="28.5">
-      <c r="A14" s="48" t="s">
+      <c r="E14" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="1:7" ht="28.5">
+      <c r="A15" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="49" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D15" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="50"/>
-    </row>
-    <row r="15" spans="1:7" ht="28.5">
-      <c r="A15" s="48" t="s">
+      <c r="E15" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="1:7" ht="28.5">
+      <c r="A16" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="49" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D16" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="50"/>
-    </row>
-    <row r="16" spans="1:7" ht="28.5">
-      <c r="A16" s="48" t="s">
+      <c r="E16" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="1:7" ht="28.5">
+      <c r="A17" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="49" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D17" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="50"/>
-    </row>
-    <row r="17" spans="1:7" ht="28.5">
-      <c r="A17" s="48" t="s">
+      <c r="E17" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="1:7" ht="28.5">
+      <c r="A18" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="49" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D18" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="50"/>
-    </row>
-    <row r="18" spans="1:7" ht="28.5">
-      <c r="A18" s="48" t="s">
+      <c r="E18" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="1:7" ht="28.5">
+      <c r="A19" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="49" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D19" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="50"/>
-    </row>
-    <row r="19" spans="1:7" ht="28.5">
-      <c r="A19" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="50"/>
+      <c r="E19" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1955,7 +2025,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:G3 JA3:JC3 SW3:SY3 ACS3:ACU3 AMO3:AMQ3 AWK3:AWM3 BGG3:BGI3 BQC3:BQE3 BZY3:CAA3 CJU3:CJW3 CTQ3:CTS3 DDM3:DDO3 DNI3:DNK3 DXE3:DXG3 EHA3:EHC3 EQW3:EQY3 FAS3:FAU3 FKO3:FKQ3 FUK3:FUM3 GEG3:GEI3 GOC3:GOE3 GXY3:GYA3 HHU3:HHW3 HRQ3:HRS3 IBM3:IBO3 ILI3:ILK3 IVE3:IVG3 JFA3:JFC3 JOW3:JOY3 JYS3:JYU3 KIO3:KIQ3 KSK3:KSM3 LCG3:LCI3 LMC3:LME3 LVY3:LWA3 MFU3:MFW3 MPQ3:MPS3 MZM3:MZO3 NJI3:NJK3 NTE3:NTG3 ODA3:ODC3 OMW3:OMY3 OWS3:OWU3 PGO3:PGQ3 PQK3:PQM3 QAG3:QAI3 QKC3:QKE3 QTY3:QUA3 RDU3:RDW3 RNQ3:RNS3 RXM3:RXO3 SHI3:SHK3 SRE3:SRG3 TBA3:TBC3 TKW3:TKY3 TUS3:TUU3 UEO3:UEQ3 UOK3:UOM3 UYG3:UYI3 VIC3:VIE3 VRY3:VSA3 WBU3:WBW3 WLQ3:WLS3 WVM3:WVO3 E65539:G65539 JA65539:JC65539 SW65539:SY65539 ACS65539:ACU65539 AMO65539:AMQ65539 AWK65539:AWM65539 BGG65539:BGI65539 BQC65539:BQE65539 BZY65539:CAA65539 CJU65539:CJW65539 CTQ65539:CTS65539 DDM65539:DDO65539 DNI65539:DNK65539 DXE65539:DXG65539 EHA65539:EHC65539 EQW65539:EQY65539 FAS65539:FAU65539 FKO65539:FKQ65539 FUK65539:FUM65539 GEG65539:GEI65539 GOC65539:GOE65539 GXY65539:GYA65539 HHU65539:HHW65539 HRQ65539:HRS65539 IBM65539:IBO65539 ILI65539:ILK65539 IVE65539:IVG65539 JFA65539:JFC65539 JOW65539:JOY65539 JYS65539:JYU65539 KIO65539:KIQ65539 KSK65539:KSM65539 LCG65539:LCI65539 LMC65539:LME65539 LVY65539:LWA65539 MFU65539:MFW65539 MPQ65539:MPS65539 MZM65539:MZO65539 NJI65539:NJK65539 NTE65539:NTG65539 ODA65539:ODC65539 OMW65539:OMY65539 OWS65539:OWU65539 PGO65539:PGQ65539 PQK65539:PQM65539 QAG65539:QAI65539 QKC65539:QKE65539 QTY65539:QUA65539 RDU65539:RDW65539 RNQ65539:RNS65539 RXM65539:RXO65539 SHI65539:SHK65539 SRE65539:SRG65539 TBA65539:TBC65539 TKW65539:TKY65539 TUS65539:TUU65539 UEO65539:UEQ65539 UOK65539:UOM65539 UYG65539:UYI65539 VIC65539:VIE65539 VRY65539:VSA65539 WBU65539:WBW65539 WLQ65539:WLS65539 WVM65539:WVO65539 E131075:G131075 JA131075:JC131075 SW131075:SY131075 ACS131075:ACU131075 AMO131075:AMQ131075 AWK131075:AWM131075 BGG131075:BGI131075 BQC131075:BQE131075 BZY131075:CAA131075 CJU131075:CJW131075 CTQ131075:CTS131075 DDM131075:DDO131075 DNI131075:DNK131075 DXE131075:DXG131075 EHA131075:EHC131075 EQW131075:EQY131075 FAS131075:FAU131075 FKO131075:FKQ131075 FUK131075:FUM131075 GEG131075:GEI131075 GOC131075:GOE131075 GXY131075:GYA131075 HHU131075:HHW131075 HRQ131075:HRS131075 IBM131075:IBO131075 ILI131075:ILK131075 IVE131075:IVG131075 JFA131075:JFC131075 JOW131075:JOY131075 JYS131075:JYU131075 KIO131075:KIQ131075 KSK131075:KSM131075 LCG131075:LCI131075 LMC131075:LME131075 LVY131075:LWA131075 MFU131075:MFW131075 MPQ131075:MPS131075 MZM131075:MZO131075 NJI131075:NJK131075 NTE131075:NTG131075 ODA131075:ODC131075 OMW131075:OMY131075 OWS131075:OWU131075 PGO131075:PGQ131075 PQK131075:PQM131075 QAG131075:QAI131075 QKC131075:QKE131075 QTY131075:QUA131075 RDU131075:RDW131075 RNQ131075:RNS131075 RXM131075:RXO131075 SHI131075:SHK131075 SRE131075:SRG131075 TBA131075:TBC131075 TKW131075:TKY131075 TUS131075:TUU131075 UEO131075:UEQ131075 UOK131075:UOM131075 UYG131075:UYI131075 VIC131075:VIE131075 VRY131075:VSA131075 WBU131075:WBW131075 WLQ131075:WLS131075 WVM131075:WVO131075 E196611:G196611 JA196611:JC196611 SW196611:SY196611 ACS196611:ACU196611 AMO196611:AMQ196611 AWK196611:AWM196611 BGG196611:BGI196611 BQC196611:BQE196611 BZY196611:CAA196611 CJU196611:CJW196611 CTQ196611:CTS196611 DDM196611:DDO196611 DNI196611:DNK196611 DXE196611:DXG196611 EHA196611:EHC196611 EQW196611:EQY196611 FAS196611:FAU196611 FKO196611:FKQ196611 FUK196611:FUM196611 GEG196611:GEI196611 GOC196611:GOE196611 GXY196611:GYA196611 HHU196611:HHW196611 HRQ196611:HRS196611 IBM196611:IBO196611 ILI196611:ILK196611 IVE196611:IVG196611 JFA196611:JFC196611 JOW196611:JOY196611 JYS196611:JYU196611 KIO196611:KIQ196611 KSK196611:KSM196611 LCG196611:LCI196611 LMC196611:LME196611 LVY196611:LWA196611 MFU196611:MFW196611 MPQ196611:MPS196611 MZM196611:MZO196611 NJI196611:NJK196611 NTE196611:NTG196611 ODA196611:ODC196611 OMW196611:OMY196611 OWS196611:OWU196611 PGO196611:PGQ196611 PQK196611:PQM196611 QAG196611:QAI196611 QKC196611:QKE196611 QTY196611:QUA196611 RDU196611:RDW196611 RNQ196611:RNS196611 RXM196611:RXO196611 SHI196611:SHK196611 SRE196611:SRG196611 TBA196611:TBC196611 TKW196611:TKY196611 TUS196611:TUU196611 UEO196611:UEQ196611 UOK196611:UOM196611 UYG196611:UYI196611 VIC196611:VIE196611 VRY196611:VSA196611 WBU196611:WBW196611 WLQ196611:WLS196611 WVM196611:WVO196611 E262147:G262147 JA262147:JC262147 SW262147:SY262147 ACS262147:ACU262147 AMO262147:AMQ262147 AWK262147:AWM262147 BGG262147:BGI262147 BQC262147:BQE262147 BZY262147:CAA262147 CJU262147:CJW262147 CTQ262147:CTS262147 DDM262147:DDO262147 DNI262147:DNK262147 DXE262147:DXG262147 EHA262147:EHC262147 EQW262147:EQY262147 FAS262147:FAU262147 FKO262147:FKQ262147 FUK262147:FUM262147 GEG262147:GEI262147 GOC262147:GOE262147 GXY262147:GYA262147 HHU262147:HHW262147 HRQ262147:HRS262147 IBM262147:IBO262147 ILI262147:ILK262147 IVE262147:IVG262147 JFA262147:JFC262147 JOW262147:JOY262147 JYS262147:JYU262147 KIO262147:KIQ262147 KSK262147:KSM262147 LCG262147:LCI262147 LMC262147:LME262147 LVY262147:LWA262147 MFU262147:MFW262147 MPQ262147:MPS262147 MZM262147:MZO262147 NJI262147:NJK262147 NTE262147:NTG262147 ODA262147:ODC262147 OMW262147:OMY262147 OWS262147:OWU262147 PGO262147:PGQ262147 PQK262147:PQM262147 QAG262147:QAI262147 QKC262147:QKE262147 QTY262147:QUA262147 RDU262147:RDW262147 RNQ262147:RNS262147 RXM262147:RXO262147 SHI262147:SHK262147 SRE262147:SRG262147 TBA262147:TBC262147 TKW262147:TKY262147 TUS262147:TUU262147 UEO262147:UEQ262147 UOK262147:UOM262147 UYG262147:UYI262147 VIC262147:VIE262147 VRY262147:VSA262147 WBU262147:WBW262147 WLQ262147:WLS262147 WVM262147:WVO262147 E327683:G327683 JA327683:JC327683 SW327683:SY327683 ACS327683:ACU327683 AMO327683:AMQ327683 AWK327683:AWM327683 BGG327683:BGI327683 BQC327683:BQE327683 BZY327683:CAA327683 CJU327683:CJW327683 CTQ327683:CTS327683 DDM327683:DDO327683 DNI327683:DNK327683 DXE327683:DXG327683 EHA327683:EHC327683 EQW327683:EQY327683 FAS327683:FAU327683 FKO327683:FKQ327683 FUK327683:FUM327683 GEG327683:GEI327683 GOC327683:GOE327683 GXY327683:GYA327683 HHU327683:HHW327683 HRQ327683:HRS327683 IBM327683:IBO327683 ILI327683:ILK327683 IVE327683:IVG327683 JFA327683:JFC327683 JOW327683:JOY327683 JYS327683:JYU327683 KIO327683:KIQ327683 KSK327683:KSM327683 LCG327683:LCI327683 LMC327683:LME327683 LVY327683:LWA327683 MFU327683:MFW327683 MPQ327683:MPS327683 MZM327683:MZO327683 NJI327683:NJK327683 NTE327683:NTG327683 ODA327683:ODC327683 OMW327683:OMY327683 OWS327683:OWU327683 PGO327683:PGQ327683 PQK327683:PQM327683 QAG327683:QAI327683 QKC327683:QKE327683 QTY327683:QUA327683 RDU327683:RDW327683 RNQ327683:RNS327683 RXM327683:RXO327683 SHI327683:SHK327683 SRE327683:SRG327683 TBA327683:TBC327683 TKW327683:TKY327683 TUS327683:TUU327683 UEO327683:UEQ327683 UOK327683:UOM327683 UYG327683:UYI327683 VIC327683:VIE327683 VRY327683:VSA327683 WBU327683:WBW327683 WLQ327683:WLS327683 WVM327683:WVO327683 E393219:G393219 JA393219:JC393219 SW393219:SY393219 ACS393219:ACU393219 AMO393219:AMQ393219 AWK393219:AWM393219 BGG393219:BGI393219 BQC393219:BQE393219 BZY393219:CAA393219 CJU393219:CJW393219 CTQ393219:CTS393219 DDM393219:DDO393219 DNI393219:DNK393219 DXE393219:DXG393219 EHA393219:EHC393219 EQW393219:EQY393219 FAS393219:FAU393219 FKO393219:FKQ393219 FUK393219:FUM393219 GEG393219:GEI393219 GOC393219:GOE393219 GXY393219:GYA393219 HHU393219:HHW393219 HRQ393219:HRS393219 IBM393219:IBO393219 ILI393219:ILK393219 IVE393219:IVG393219 JFA393219:JFC393219 JOW393219:JOY393219 JYS393219:JYU393219 KIO393219:KIQ393219 KSK393219:KSM393219 LCG393219:LCI393219 LMC393219:LME393219 LVY393219:LWA393219 MFU393219:MFW393219 MPQ393219:MPS393219 MZM393219:MZO393219 NJI393219:NJK393219 NTE393219:NTG393219 ODA393219:ODC393219 OMW393219:OMY393219 OWS393219:OWU393219 PGO393219:PGQ393219 PQK393219:PQM393219 QAG393219:QAI393219 QKC393219:QKE393219 QTY393219:QUA393219 RDU393219:RDW393219 RNQ393219:RNS393219 RXM393219:RXO393219 SHI393219:SHK393219 SRE393219:SRG393219 TBA393219:TBC393219 TKW393219:TKY393219 TUS393219:TUU393219 UEO393219:UEQ393219 UOK393219:UOM393219 UYG393219:UYI393219 VIC393219:VIE393219 VRY393219:VSA393219 WBU393219:WBW393219 WLQ393219:WLS393219 WVM393219:WVO393219 E458755:G458755 JA458755:JC458755 SW458755:SY458755 ACS458755:ACU458755 AMO458755:AMQ458755 AWK458755:AWM458755 BGG458755:BGI458755 BQC458755:BQE458755 BZY458755:CAA458755 CJU458755:CJW458755 CTQ458755:CTS458755 DDM458755:DDO458755 DNI458755:DNK458755 DXE458755:DXG458755 EHA458755:EHC458755 EQW458755:EQY458755 FAS458755:FAU458755 FKO458755:FKQ458755 FUK458755:FUM458755 GEG458755:GEI458755 GOC458755:GOE458755 GXY458755:GYA458755 HHU458755:HHW458755 HRQ458755:HRS458755 IBM458755:IBO458755 ILI458755:ILK458755 IVE458755:IVG458755 JFA458755:JFC458755 JOW458755:JOY458755 JYS458755:JYU458755 KIO458755:KIQ458755 KSK458755:KSM458755 LCG458755:LCI458755 LMC458755:LME458755 LVY458755:LWA458755 MFU458755:MFW458755 MPQ458755:MPS458755 MZM458755:MZO458755 NJI458755:NJK458755 NTE458755:NTG458755 ODA458755:ODC458755 OMW458755:OMY458755 OWS458755:OWU458755 PGO458755:PGQ458755 PQK458755:PQM458755 QAG458755:QAI458755 QKC458755:QKE458755 QTY458755:QUA458755 RDU458755:RDW458755 RNQ458755:RNS458755 RXM458755:RXO458755 SHI458755:SHK458755 SRE458755:SRG458755 TBA458755:TBC458755 TKW458755:TKY458755 TUS458755:TUU458755 UEO458755:UEQ458755 UOK458755:UOM458755 UYG458755:UYI458755 VIC458755:VIE458755 VRY458755:VSA458755 WBU458755:WBW458755 WLQ458755:WLS458755 WVM458755:WVO458755 E524291:G524291 JA524291:JC524291 SW524291:SY524291 ACS524291:ACU524291 AMO524291:AMQ524291 AWK524291:AWM524291 BGG524291:BGI524291 BQC524291:BQE524291 BZY524291:CAA524291 CJU524291:CJW524291 CTQ524291:CTS524291 DDM524291:DDO524291 DNI524291:DNK524291 DXE524291:DXG524291 EHA524291:EHC524291 EQW524291:EQY524291 FAS524291:FAU524291 FKO524291:FKQ524291 FUK524291:FUM524291 GEG524291:GEI524291 GOC524291:GOE524291 GXY524291:GYA524291 HHU524291:HHW524291 HRQ524291:HRS524291 IBM524291:IBO524291 ILI524291:ILK524291 IVE524291:IVG524291 JFA524291:JFC524291 JOW524291:JOY524291 JYS524291:JYU524291 KIO524291:KIQ524291 KSK524291:KSM524291 LCG524291:LCI524291 LMC524291:LME524291 LVY524291:LWA524291 MFU524291:MFW524291 MPQ524291:MPS524291 MZM524291:MZO524291 NJI524291:NJK524291 NTE524291:NTG524291 ODA524291:ODC524291 OMW524291:OMY524291 OWS524291:OWU524291 PGO524291:PGQ524291 PQK524291:PQM524291 QAG524291:QAI524291 QKC524291:QKE524291 QTY524291:QUA524291 RDU524291:RDW524291 RNQ524291:RNS524291 RXM524291:RXO524291 SHI524291:SHK524291 SRE524291:SRG524291 TBA524291:TBC524291 TKW524291:TKY524291 TUS524291:TUU524291 UEO524291:UEQ524291 UOK524291:UOM524291 UYG524291:UYI524291 VIC524291:VIE524291 VRY524291:VSA524291 WBU524291:WBW524291 WLQ524291:WLS524291 WVM524291:WVO524291 E589827:G589827 JA589827:JC589827 SW589827:SY589827 ACS589827:ACU589827 AMO589827:AMQ589827 AWK589827:AWM589827 BGG589827:BGI589827 BQC589827:BQE589827 BZY589827:CAA589827 CJU589827:CJW589827 CTQ589827:CTS589827 DDM589827:DDO589827 DNI589827:DNK589827 DXE589827:DXG589827 EHA589827:EHC589827 EQW589827:EQY589827 FAS589827:FAU589827 FKO589827:FKQ589827 FUK589827:FUM589827 GEG589827:GEI589827 GOC589827:GOE589827 GXY589827:GYA589827 HHU589827:HHW589827 HRQ589827:HRS589827 IBM589827:IBO589827 ILI589827:ILK589827 IVE589827:IVG589827 JFA589827:JFC589827 JOW589827:JOY589827 JYS589827:JYU589827 KIO589827:KIQ589827 KSK589827:KSM589827 LCG589827:LCI589827 LMC589827:LME589827 LVY589827:LWA589827 MFU589827:MFW589827 MPQ589827:MPS589827 MZM589827:MZO589827 NJI589827:NJK589827 NTE589827:NTG589827 ODA589827:ODC589827 OMW589827:OMY589827 OWS589827:OWU589827 PGO589827:PGQ589827 PQK589827:PQM589827 QAG589827:QAI589827 QKC589827:QKE589827 QTY589827:QUA589827 RDU589827:RDW589827 RNQ589827:RNS589827 RXM589827:RXO589827 SHI589827:SHK589827 SRE589827:SRG589827 TBA589827:TBC589827 TKW589827:TKY589827 TUS589827:TUU589827 UEO589827:UEQ589827 UOK589827:UOM589827 UYG589827:UYI589827 VIC589827:VIE589827 VRY589827:VSA589827 WBU589827:WBW589827 WLQ589827:WLS589827 WVM589827:WVO589827 E655363:G655363 JA655363:JC655363 SW655363:SY655363 ACS655363:ACU655363 AMO655363:AMQ655363 AWK655363:AWM655363 BGG655363:BGI655363 BQC655363:BQE655363 BZY655363:CAA655363 CJU655363:CJW655363 CTQ655363:CTS655363 DDM655363:DDO655363 DNI655363:DNK655363 DXE655363:DXG655363 EHA655363:EHC655363 EQW655363:EQY655363 FAS655363:FAU655363 FKO655363:FKQ655363 FUK655363:FUM655363 GEG655363:GEI655363 GOC655363:GOE655363 GXY655363:GYA655363 HHU655363:HHW655363 HRQ655363:HRS655363 IBM655363:IBO655363 ILI655363:ILK655363 IVE655363:IVG655363 JFA655363:JFC655363 JOW655363:JOY655363 JYS655363:JYU655363 KIO655363:KIQ655363 KSK655363:KSM655363 LCG655363:LCI655363 LMC655363:LME655363 LVY655363:LWA655363 MFU655363:MFW655363 MPQ655363:MPS655363 MZM655363:MZO655363 NJI655363:NJK655363 NTE655363:NTG655363 ODA655363:ODC655363 OMW655363:OMY655363 OWS655363:OWU655363 PGO655363:PGQ655363 PQK655363:PQM655363 QAG655363:QAI655363 QKC655363:QKE655363 QTY655363:QUA655363 RDU655363:RDW655363 RNQ655363:RNS655363 RXM655363:RXO655363 SHI655363:SHK655363 SRE655363:SRG655363 TBA655363:TBC655363 TKW655363:TKY655363 TUS655363:TUU655363 UEO655363:UEQ655363 UOK655363:UOM655363 UYG655363:UYI655363 VIC655363:VIE655363 VRY655363:VSA655363 WBU655363:WBW655363 WLQ655363:WLS655363 WVM655363:WVO655363 E720899:G720899 JA720899:JC720899 SW720899:SY720899 ACS720899:ACU720899 AMO720899:AMQ720899 AWK720899:AWM720899 BGG720899:BGI720899 BQC720899:BQE720899 BZY720899:CAA720899 CJU720899:CJW720899 CTQ720899:CTS720899 DDM720899:DDO720899 DNI720899:DNK720899 DXE720899:DXG720899 EHA720899:EHC720899 EQW720899:EQY720899 FAS720899:FAU720899 FKO720899:FKQ720899 FUK720899:FUM720899 GEG720899:GEI720899 GOC720899:GOE720899 GXY720899:GYA720899 HHU720899:HHW720899 HRQ720899:HRS720899 IBM720899:IBO720899 ILI720899:ILK720899 IVE720899:IVG720899 JFA720899:JFC720899 JOW720899:JOY720899 JYS720899:JYU720899 KIO720899:KIQ720899 KSK720899:KSM720899 LCG720899:LCI720899 LMC720899:LME720899 LVY720899:LWA720899 MFU720899:MFW720899 MPQ720899:MPS720899 MZM720899:MZO720899 NJI720899:NJK720899 NTE720899:NTG720899 ODA720899:ODC720899 OMW720899:OMY720899 OWS720899:OWU720899 PGO720899:PGQ720899 PQK720899:PQM720899 QAG720899:QAI720899 QKC720899:QKE720899 QTY720899:QUA720899 RDU720899:RDW720899 RNQ720899:RNS720899 RXM720899:RXO720899 SHI720899:SHK720899 SRE720899:SRG720899 TBA720899:TBC720899 TKW720899:TKY720899 TUS720899:TUU720899 UEO720899:UEQ720899 UOK720899:UOM720899 UYG720899:UYI720899 VIC720899:VIE720899 VRY720899:VSA720899 WBU720899:WBW720899 WLQ720899:WLS720899 WVM720899:WVO720899 E786435:G786435 JA786435:JC786435 SW786435:SY786435 ACS786435:ACU786435 AMO786435:AMQ786435 AWK786435:AWM786435 BGG786435:BGI786435 BQC786435:BQE786435 BZY786435:CAA786435 CJU786435:CJW786435 CTQ786435:CTS786435 DDM786435:DDO786435 DNI786435:DNK786435 DXE786435:DXG786435 EHA786435:EHC786435 EQW786435:EQY786435 FAS786435:FAU786435 FKO786435:FKQ786435 FUK786435:FUM786435 GEG786435:GEI786435 GOC786435:GOE786435 GXY786435:GYA786435 HHU786435:HHW786435 HRQ786435:HRS786435 IBM786435:IBO786435 ILI786435:ILK786435 IVE786435:IVG786435 JFA786435:JFC786435 JOW786435:JOY786435 JYS786435:JYU786435 KIO786435:KIQ786435 KSK786435:KSM786435 LCG786435:LCI786435 LMC786435:LME786435 LVY786435:LWA786435 MFU786435:MFW786435 MPQ786435:MPS786435 MZM786435:MZO786435 NJI786435:NJK786435 NTE786435:NTG786435 ODA786435:ODC786435 OMW786435:OMY786435 OWS786435:OWU786435 PGO786435:PGQ786435 PQK786435:PQM786435 QAG786435:QAI786435 QKC786435:QKE786435 QTY786435:QUA786435 RDU786435:RDW786435 RNQ786435:RNS786435 RXM786435:RXO786435 SHI786435:SHK786435 SRE786435:SRG786435 TBA786435:TBC786435 TKW786435:TKY786435 TUS786435:TUU786435 UEO786435:UEQ786435 UOK786435:UOM786435 UYG786435:UYI786435 VIC786435:VIE786435 VRY786435:VSA786435 WBU786435:WBW786435 WLQ786435:WLS786435 WVM786435:WVO786435 E851971:G851971 JA851971:JC851971 SW851971:SY851971 ACS851971:ACU851971 AMO851971:AMQ851971 AWK851971:AWM851971 BGG851971:BGI851971 BQC851971:BQE851971 BZY851971:CAA851971 CJU851971:CJW851971 CTQ851971:CTS851971 DDM851971:DDO851971 DNI851971:DNK851971 DXE851971:DXG851971 EHA851971:EHC851971 EQW851971:EQY851971 FAS851971:FAU851971 FKO851971:FKQ851971 FUK851971:FUM851971 GEG851971:GEI851971 GOC851971:GOE851971 GXY851971:GYA851971 HHU851971:HHW851971 HRQ851971:HRS851971 IBM851971:IBO851971 ILI851971:ILK851971 IVE851971:IVG851971 JFA851971:JFC851971 JOW851971:JOY851971 JYS851971:JYU851971 KIO851971:KIQ851971 KSK851971:KSM851971 LCG851971:LCI851971 LMC851971:LME851971 LVY851971:LWA851971 MFU851971:MFW851971 MPQ851971:MPS851971 MZM851971:MZO851971 NJI851971:NJK851971 NTE851971:NTG851971 ODA851971:ODC851971 OMW851971:OMY851971 OWS851971:OWU851971 PGO851971:PGQ851971 PQK851971:PQM851971 QAG851971:QAI851971 QKC851971:QKE851971 QTY851971:QUA851971 RDU851971:RDW851971 RNQ851971:RNS851971 RXM851971:RXO851971 SHI851971:SHK851971 SRE851971:SRG851971 TBA851971:TBC851971 TKW851971:TKY851971 TUS851971:TUU851971 UEO851971:UEQ851971 UOK851971:UOM851971 UYG851971:UYI851971 VIC851971:VIE851971 VRY851971:VSA851971 WBU851971:WBW851971 WLQ851971:WLS851971 WVM851971:WVO851971 E917507:G917507 JA917507:JC917507 SW917507:SY917507 ACS917507:ACU917507 AMO917507:AMQ917507 AWK917507:AWM917507 BGG917507:BGI917507 BQC917507:BQE917507 BZY917507:CAA917507 CJU917507:CJW917507 CTQ917507:CTS917507 DDM917507:DDO917507 DNI917507:DNK917507 DXE917507:DXG917507 EHA917507:EHC917507 EQW917507:EQY917507 FAS917507:FAU917507 FKO917507:FKQ917507 FUK917507:FUM917507 GEG917507:GEI917507 GOC917507:GOE917507 GXY917507:GYA917507 HHU917507:HHW917507 HRQ917507:HRS917507 IBM917507:IBO917507 ILI917507:ILK917507 IVE917507:IVG917507 JFA917507:JFC917507 JOW917507:JOY917507 JYS917507:JYU917507 KIO917507:KIQ917507 KSK917507:KSM917507 LCG917507:LCI917507 LMC917507:LME917507 LVY917507:LWA917507 MFU917507:MFW917507 MPQ917507:MPS917507 MZM917507:MZO917507 NJI917507:NJK917507 NTE917507:NTG917507 ODA917507:ODC917507 OMW917507:OMY917507 OWS917507:OWU917507 PGO917507:PGQ917507 PQK917507:PQM917507 QAG917507:QAI917507 QKC917507:QKE917507 QTY917507:QUA917507 RDU917507:RDW917507 RNQ917507:RNS917507 RXM917507:RXO917507 SHI917507:SHK917507 SRE917507:SRG917507 TBA917507:TBC917507 TKW917507:TKY917507 TUS917507:TUU917507 UEO917507:UEQ917507 UOK917507:UOM917507 UYG917507:UYI917507 VIC917507:VIE917507 VRY917507:VSA917507 WBU917507:WBW917507 WLQ917507:WLS917507 WVM917507:WVO917507 E983043:G983043 JA983043:JC983043 SW983043:SY983043 ACS983043:ACU983043 AMO983043:AMQ983043 AWK983043:AWM983043 BGG983043:BGI983043 BQC983043:BQE983043 BZY983043:CAA983043 CJU983043:CJW983043 CTQ983043:CTS983043 DDM983043:DDO983043 DNI983043:DNK983043 DXE983043:DXG983043 EHA983043:EHC983043 EQW983043:EQY983043 FAS983043:FAU983043 FKO983043:FKQ983043 FUK983043:FUM983043 GEG983043:GEI983043 GOC983043:GOE983043 GXY983043:GYA983043 HHU983043:HHW983043 HRQ983043:HRS983043 IBM983043:IBO983043 ILI983043:ILK983043 IVE983043:IVG983043 JFA983043:JFC983043 JOW983043:JOY983043 JYS983043:JYU983043 KIO983043:KIQ983043 KSK983043:KSM983043 LCG983043:LCI983043 LMC983043:LME983043 LVY983043:LWA983043 MFU983043:MFW983043 MPQ983043:MPS983043 MZM983043:MZO983043 NJI983043:NJK983043 NTE983043:NTG983043 ODA983043:ODC983043 OMW983043:OMY983043 OWS983043:OWU983043 PGO983043:PGQ983043 PQK983043:PQM983043 QAG983043:QAI983043 QKC983043:QKE983043 QTY983043:QUA983043 RDU983043:RDW983043 RNQ983043:RNS983043 RXM983043:RXO983043 SHI983043:SHK983043 SRE983043:SRG983043 TBA983043:TBC983043 TKW983043:TKY983043 TUS983043:TUU983043 UEO983043:UEQ983043 UOK983043:UOM983043 UYG983043:UYI983043 VIC983043:VIE983043 VRY983043:VSA983043 WBU983043:WBW983043 WLQ983043:WLS983043 WVM983043:WVO983043">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:G3 JA3:JC3 SW3:SY3 ACS3:ACU3 AMO3:AMQ3 AWK3:AWM3 BGG3:BGI3 BQC3:BQE3 BZY3:CAA3 CJU3:CJW3 CTQ3:CTS3 DDM3:DDO3 DNI3:DNK3 DXE3:DXG3 EHA3:EHC3 EQW3:EQY3 FAS3:FAU3 FKO3:FKQ3 FUK3:FUM3 GEG3:GEI3 GOC3:GOE3 GXY3:GYA3 HHU3:HHW3 HRQ3:HRS3 IBM3:IBO3 ILI3:ILK3 IVE3:IVG3 JFA3:JFC3 JOW3:JOY3 JYS3:JYU3 KIO3:KIQ3 KSK3:KSM3 LCG3:LCI3 LMC3:LME3 LVY3:LWA3 MFU3:MFW3 MPQ3:MPS3 MZM3:MZO3 NJI3:NJK3 NTE3:NTG3 ODA3:ODC3 OMW3:OMY3 OWS3:OWU3 PGO3:PGQ3 PQK3:PQM3 QAG3:QAI3 QKC3:QKE3 QTY3:QUA3 RDU3:RDW3 RNQ3:RNS3 RXM3:RXO3 SHI3:SHK3 SRE3:SRG3 TBA3:TBC3 TKW3:TKY3 TUS3:TUU3 UEO3:UEQ3 UOK3:UOM3 UYG3:UYI3 VIC3:VIE3 VRY3:VSA3 WBU3:WBW3 WLQ3:WLS3 WVM3:WVO3 E65539:G65539 JA65539:JC65539 SW65539:SY65539 ACS65539:ACU65539 AMO65539:AMQ65539 AWK65539:AWM65539 BGG65539:BGI65539 BQC65539:BQE65539 BZY65539:CAA65539 CJU65539:CJW65539 CTQ65539:CTS65539 DDM65539:DDO65539 DNI65539:DNK65539 DXE65539:DXG65539 EHA65539:EHC65539 EQW65539:EQY65539 FAS65539:FAU65539 FKO65539:FKQ65539 FUK65539:FUM65539 GEG65539:GEI65539 GOC65539:GOE65539 GXY65539:GYA65539 HHU65539:HHW65539 HRQ65539:HRS65539 IBM65539:IBO65539 ILI65539:ILK65539 IVE65539:IVG65539 JFA65539:JFC65539 JOW65539:JOY65539 JYS65539:JYU65539 KIO65539:KIQ65539 KSK65539:KSM65539 LCG65539:LCI65539 LMC65539:LME65539 LVY65539:LWA65539 MFU65539:MFW65539 MPQ65539:MPS65539 MZM65539:MZO65539 NJI65539:NJK65539 NTE65539:NTG65539 ODA65539:ODC65539 OMW65539:OMY65539 OWS65539:OWU65539 PGO65539:PGQ65539 PQK65539:PQM65539 QAG65539:QAI65539 QKC65539:QKE65539 QTY65539:QUA65539 RDU65539:RDW65539 RNQ65539:RNS65539 RXM65539:RXO65539 SHI65539:SHK65539 SRE65539:SRG65539 TBA65539:TBC65539 TKW65539:TKY65539 TUS65539:TUU65539 UEO65539:UEQ65539 UOK65539:UOM65539 UYG65539:UYI65539 VIC65539:VIE65539 VRY65539:VSA65539 WBU65539:WBW65539 WLQ65539:WLS65539 WVM65539:WVO65539 E131075:G131075 JA131075:JC131075 SW131075:SY131075 ACS131075:ACU131075 AMO131075:AMQ131075 AWK131075:AWM131075 BGG131075:BGI131075 BQC131075:BQE131075 BZY131075:CAA131075 CJU131075:CJW131075 CTQ131075:CTS131075 DDM131075:DDO131075 DNI131075:DNK131075 DXE131075:DXG131075 EHA131075:EHC131075 EQW131075:EQY131075 FAS131075:FAU131075 FKO131075:FKQ131075 FUK131075:FUM131075 GEG131075:GEI131075 GOC131075:GOE131075 GXY131075:GYA131075 HHU131075:HHW131075 HRQ131075:HRS131075 IBM131075:IBO131075 ILI131075:ILK131075 IVE131075:IVG131075 JFA131075:JFC131075 JOW131075:JOY131075 JYS131075:JYU131075 KIO131075:KIQ131075 KSK131075:KSM131075 LCG131075:LCI131075 LMC131075:LME131075 LVY131075:LWA131075 MFU131075:MFW131075 MPQ131075:MPS131075 MZM131075:MZO131075 NJI131075:NJK131075 NTE131075:NTG131075 ODA131075:ODC131075 OMW131075:OMY131075 OWS131075:OWU131075 PGO131075:PGQ131075 PQK131075:PQM131075 QAG131075:QAI131075 QKC131075:QKE131075 QTY131075:QUA131075 RDU131075:RDW131075 RNQ131075:RNS131075 RXM131075:RXO131075 SHI131075:SHK131075 SRE131075:SRG131075 TBA131075:TBC131075 TKW131075:TKY131075 TUS131075:TUU131075 UEO131075:UEQ131075 UOK131075:UOM131075 UYG131075:UYI131075 VIC131075:VIE131075 VRY131075:VSA131075 WBU131075:WBW131075 WLQ131075:WLS131075 WVM131075:WVO131075 E196611:G196611 JA196611:JC196611 SW196611:SY196611 ACS196611:ACU196611 AMO196611:AMQ196611 AWK196611:AWM196611 BGG196611:BGI196611 BQC196611:BQE196611 BZY196611:CAA196611 CJU196611:CJW196611 CTQ196611:CTS196611 DDM196611:DDO196611 DNI196611:DNK196611 DXE196611:DXG196611 EHA196611:EHC196611 EQW196611:EQY196611 FAS196611:FAU196611 FKO196611:FKQ196611 FUK196611:FUM196611 GEG196611:GEI196611 GOC196611:GOE196611 GXY196611:GYA196611 HHU196611:HHW196611 HRQ196611:HRS196611 IBM196611:IBO196611 ILI196611:ILK196611 IVE196611:IVG196611 JFA196611:JFC196611 JOW196611:JOY196611 JYS196611:JYU196611 KIO196611:KIQ196611 KSK196611:KSM196611 LCG196611:LCI196611 LMC196611:LME196611 LVY196611:LWA196611 MFU196611:MFW196611 MPQ196611:MPS196611 MZM196611:MZO196611 NJI196611:NJK196611 NTE196611:NTG196611 ODA196611:ODC196611 OMW196611:OMY196611 OWS196611:OWU196611 PGO196611:PGQ196611 PQK196611:PQM196611 QAG196611:QAI196611 QKC196611:QKE196611 QTY196611:QUA196611 RDU196611:RDW196611 RNQ196611:RNS196611 RXM196611:RXO196611 SHI196611:SHK196611 SRE196611:SRG196611 TBA196611:TBC196611 TKW196611:TKY196611 TUS196611:TUU196611 UEO196611:UEQ196611 UOK196611:UOM196611 UYG196611:UYI196611 VIC196611:VIE196611 VRY196611:VSA196611 WBU196611:WBW196611 WLQ196611:WLS196611 WVM196611:WVO196611 E262147:G262147 JA262147:JC262147 SW262147:SY262147 ACS262147:ACU262147 AMO262147:AMQ262147 AWK262147:AWM262147 BGG262147:BGI262147 BQC262147:BQE262147 BZY262147:CAA262147 CJU262147:CJW262147 CTQ262147:CTS262147 DDM262147:DDO262147 DNI262147:DNK262147 DXE262147:DXG262147 EHA262147:EHC262147 EQW262147:EQY262147 FAS262147:FAU262147 FKO262147:FKQ262147 FUK262147:FUM262147 GEG262147:GEI262147 GOC262147:GOE262147 GXY262147:GYA262147 HHU262147:HHW262147 HRQ262147:HRS262147 IBM262147:IBO262147 ILI262147:ILK262147 IVE262147:IVG262147 JFA262147:JFC262147 JOW262147:JOY262147 JYS262147:JYU262147 KIO262147:KIQ262147 KSK262147:KSM262147 LCG262147:LCI262147 LMC262147:LME262147 LVY262147:LWA262147 MFU262147:MFW262147 MPQ262147:MPS262147 MZM262147:MZO262147 NJI262147:NJK262147 NTE262147:NTG262147 ODA262147:ODC262147 OMW262147:OMY262147 OWS262147:OWU262147 PGO262147:PGQ262147 PQK262147:PQM262147 QAG262147:QAI262147 QKC262147:QKE262147 QTY262147:QUA262147 RDU262147:RDW262147 RNQ262147:RNS262147 RXM262147:RXO262147 SHI262147:SHK262147 SRE262147:SRG262147 TBA262147:TBC262147 TKW262147:TKY262147 TUS262147:TUU262147 UEO262147:UEQ262147 UOK262147:UOM262147 UYG262147:UYI262147 VIC262147:VIE262147 VRY262147:VSA262147 WBU262147:WBW262147 WLQ262147:WLS262147 WVM262147:WVO262147 E327683:G327683 JA327683:JC327683 SW327683:SY327683 ACS327683:ACU327683 AMO327683:AMQ327683 AWK327683:AWM327683 BGG327683:BGI327683 BQC327683:BQE327683 BZY327683:CAA327683 CJU327683:CJW327683 CTQ327683:CTS327683 DDM327683:DDO327683 DNI327683:DNK327683 DXE327683:DXG327683 EHA327683:EHC327683 EQW327683:EQY327683 FAS327683:FAU327683 FKO327683:FKQ327683 FUK327683:FUM327683 GEG327683:GEI327683 GOC327683:GOE327683 GXY327683:GYA327683 HHU327683:HHW327683 HRQ327683:HRS327683 IBM327683:IBO327683 ILI327683:ILK327683 IVE327683:IVG327683 JFA327683:JFC327683 JOW327683:JOY327683 JYS327683:JYU327683 KIO327683:KIQ327683 KSK327683:KSM327683 LCG327683:LCI327683 LMC327683:LME327683 LVY327683:LWA327683 MFU327683:MFW327683 MPQ327683:MPS327683 MZM327683:MZO327683 NJI327683:NJK327683 NTE327683:NTG327683 ODA327683:ODC327683 OMW327683:OMY327683 OWS327683:OWU327683 PGO327683:PGQ327683 PQK327683:PQM327683 QAG327683:QAI327683 QKC327683:QKE327683 QTY327683:QUA327683 RDU327683:RDW327683 RNQ327683:RNS327683 RXM327683:RXO327683 SHI327683:SHK327683 SRE327683:SRG327683 TBA327683:TBC327683 TKW327683:TKY327683 TUS327683:TUU327683 UEO327683:UEQ327683 UOK327683:UOM327683 UYG327683:UYI327683 VIC327683:VIE327683 VRY327683:VSA327683 WBU327683:WBW327683 WLQ327683:WLS327683 WVM327683:WVO327683 E393219:G393219 JA393219:JC393219 SW393219:SY393219 ACS393219:ACU393219 AMO393219:AMQ393219 AWK393219:AWM393219 BGG393219:BGI393219 BQC393219:BQE393219 BZY393219:CAA393219 CJU393219:CJW393219 CTQ393219:CTS393219 DDM393219:DDO393219 DNI393219:DNK393219 DXE393219:DXG393219 EHA393219:EHC393219 EQW393219:EQY393219 FAS393219:FAU393219 FKO393219:FKQ393219 FUK393219:FUM393219 GEG393219:GEI393219 GOC393219:GOE393219 GXY393219:GYA393219 HHU393219:HHW393219 HRQ393219:HRS393219 IBM393219:IBO393219 ILI393219:ILK393219 IVE393219:IVG393219 JFA393219:JFC393219 JOW393219:JOY393219 JYS393219:JYU393219 KIO393219:KIQ393219 KSK393219:KSM393219 LCG393219:LCI393219 LMC393219:LME393219 LVY393219:LWA393219 MFU393219:MFW393219 MPQ393219:MPS393219 MZM393219:MZO393219 NJI393219:NJK393219 NTE393219:NTG393219 ODA393219:ODC393219 OMW393219:OMY393219 OWS393219:OWU393219 PGO393219:PGQ393219 PQK393219:PQM393219 QAG393219:QAI393219 QKC393219:QKE393219 QTY393219:QUA393219 RDU393219:RDW393219 RNQ393219:RNS393219 RXM393219:RXO393219 SHI393219:SHK393219 SRE393219:SRG393219 TBA393219:TBC393219 TKW393219:TKY393219 TUS393219:TUU393219 UEO393219:UEQ393219 UOK393219:UOM393219 UYG393219:UYI393219 VIC393219:VIE393219 VRY393219:VSA393219 WBU393219:WBW393219 WLQ393219:WLS393219 WVM393219:WVO393219 E458755:G458755 JA458755:JC458755 SW458755:SY458755 ACS458755:ACU458755 AMO458755:AMQ458755 AWK458755:AWM458755 BGG458755:BGI458755 BQC458755:BQE458755 BZY458755:CAA458755 CJU458755:CJW458755 CTQ458755:CTS458755 DDM458755:DDO458755 DNI458755:DNK458755 DXE458755:DXG458755 EHA458755:EHC458755 EQW458755:EQY458755 FAS458755:FAU458755 FKO458755:FKQ458755 FUK458755:FUM458755 GEG458755:GEI458755 GOC458755:GOE458755 GXY458755:GYA458755 HHU458755:HHW458755 HRQ458755:HRS458755 IBM458755:IBO458755 ILI458755:ILK458755 IVE458755:IVG458755 JFA458755:JFC458755 JOW458755:JOY458755 JYS458755:JYU458755 KIO458755:KIQ458755 KSK458755:KSM458755 LCG458755:LCI458755 LMC458755:LME458755 LVY458755:LWA458755 MFU458755:MFW458755 MPQ458755:MPS458755 MZM458755:MZO458755 NJI458755:NJK458755 NTE458755:NTG458755 ODA458755:ODC458755 OMW458755:OMY458755 OWS458755:OWU458755 PGO458755:PGQ458755 PQK458755:PQM458755 QAG458755:QAI458755 QKC458755:QKE458755 QTY458755:QUA458755 RDU458755:RDW458755 RNQ458755:RNS458755 RXM458755:RXO458755 SHI458755:SHK458755 SRE458755:SRG458755 TBA458755:TBC458755 TKW458755:TKY458755 TUS458755:TUU458755 UEO458755:UEQ458755 UOK458755:UOM458755 UYG458755:UYI458755 VIC458755:VIE458755 VRY458755:VSA458755 WBU458755:WBW458755 WLQ458755:WLS458755 WVM458755:WVO458755 E524291:G524291 JA524291:JC524291 SW524291:SY524291 ACS524291:ACU524291 AMO524291:AMQ524291 AWK524291:AWM524291 BGG524291:BGI524291 BQC524291:BQE524291 BZY524291:CAA524291 CJU524291:CJW524291 CTQ524291:CTS524291 DDM524291:DDO524291 DNI524291:DNK524291 DXE524291:DXG524291 EHA524291:EHC524291 EQW524291:EQY524291 FAS524291:FAU524291 FKO524291:FKQ524291 FUK524291:FUM524291 GEG524291:GEI524291 GOC524291:GOE524291 GXY524291:GYA524291 HHU524291:HHW524291 HRQ524291:HRS524291 IBM524291:IBO524291 ILI524291:ILK524291 IVE524291:IVG524291 JFA524291:JFC524291 JOW524291:JOY524291 JYS524291:JYU524291 KIO524291:KIQ524291 KSK524291:KSM524291 LCG524291:LCI524291 LMC524291:LME524291 LVY524291:LWA524291 MFU524291:MFW524291 MPQ524291:MPS524291 MZM524291:MZO524291 NJI524291:NJK524291 NTE524291:NTG524291 ODA524291:ODC524291 OMW524291:OMY524291 OWS524291:OWU524291 PGO524291:PGQ524291 PQK524291:PQM524291 QAG524291:QAI524291 QKC524291:QKE524291 QTY524291:QUA524291 RDU524291:RDW524291 RNQ524291:RNS524291 RXM524291:RXO524291 SHI524291:SHK524291 SRE524291:SRG524291 TBA524291:TBC524291 TKW524291:TKY524291 TUS524291:TUU524291 UEO524291:UEQ524291 UOK524291:UOM524291 UYG524291:UYI524291 VIC524291:VIE524291 VRY524291:VSA524291 WBU524291:WBW524291 WLQ524291:WLS524291 WVM524291:WVO524291 E589827:G589827 JA589827:JC589827 SW589827:SY589827 ACS589827:ACU589827 AMO589827:AMQ589827 AWK589827:AWM589827 BGG589827:BGI589827 BQC589827:BQE589827 BZY589827:CAA589827 CJU589827:CJW589827 CTQ589827:CTS589827 DDM589827:DDO589827 DNI589827:DNK589827 DXE589827:DXG589827 EHA589827:EHC589827 EQW589827:EQY589827 FAS589827:FAU589827 FKO589827:FKQ589827 FUK589827:FUM589827 GEG589827:GEI589827 GOC589827:GOE589827 GXY589827:GYA589827 HHU589827:HHW589827 HRQ589827:HRS589827 IBM589827:IBO589827 ILI589827:ILK589827 IVE589827:IVG589827 JFA589827:JFC589827 JOW589827:JOY589827 JYS589827:JYU589827 KIO589827:KIQ589827 KSK589827:KSM589827 LCG589827:LCI589827 LMC589827:LME589827 LVY589827:LWA589827 MFU589827:MFW589827 MPQ589827:MPS589827 MZM589827:MZO589827 NJI589827:NJK589827 NTE589827:NTG589827 ODA589827:ODC589827 OMW589827:OMY589827 OWS589827:OWU589827 PGO589827:PGQ589827 PQK589827:PQM589827 QAG589827:QAI589827 QKC589827:QKE589827 QTY589827:QUA589827 RDU589827:RDW589827 RNQ589827:RNS589827 RXM589827:RXO589827 SHI589827:SHK589827 SRE589827:SRG589827 TBA589827:TBC589827 TKW589827:TKY589827 TUS589827:TUU589827 UEO589827:UEQ589827 UOK589827:UOM589827 UYG589827:UYI589827 VIC589827:VIE589827 VRY589827:VSA589827 WBU589827:WBW589827 WLQ589827:WLS589827 WVM589827:WVO589827 E655363:G655363 JA655363:JC655363 SW655363:SY655363 ACS655363:ACU655363 AMO655363:AMQ655363 AWK655363:AWM655363 BGG655363:BGI655363 BQC655363:BQE655363 BZY655363:CAA655363 CJU655363:CJW655363 CTQ655363:CTS655363 DDM655363:DDO655363 DNI655363:DNK655363 DXE655363:DXG655363 EHA655363:EHC655363 EQW655363:EQY655363 FAS655363:FAU655363 FKO655363:FKQ655363 FUK655363:FUM655363 GEG655363:GEI655363 GOC655363:GOE655363 GXY655363:GYA655363 HHU655363:HHW655363 HRQ655363:HRS655363 IBM655363:IBO655363 ILI655363:ILK655363 IVE655363:IVG655363 JFA655363:JFC655363 JOW655363:JOY655363 JYS655363:JYU655363 KIO655363:KIQ655363 KSK655363:KSM655363 LCG655363:LCI655363 LMC655363:LME655363 LVY655363:LWA655363 MFU655363:MFW655363 MPQ655363:MPS655363 MZM655363:MZO655363 NJI655363:NJK655363 NTE655363:NTG655363 ODA655363:ODC655363 OMW655363:OMY655363 OWS655363:OWU655363 PGO655363:PGQ655363 PQK655363:PQM655363 QAG655363:QAI655363 QKC655363:QKE655363 QTY655363:QUA655363 RDU655363:RDW655363 RNQ655363:RNS655363 RXM655363:RXO655363 SHI655363:SHK655363 SRE655363:SRG655363 TBA655363:TBC655363 TKW655363:TKY655363 TUS655363:TUU655363 UEO655363:UEQ655363 UOK655363:UOM655363 UYG655363:UYI655363 VIC655363:VIE655363 VRY655363:VSA655363 WBU655363:WBW655363 WLQ655363:WLS655363 WVM655363:WVO655363 E720899:G720899 JA720899:JC720899 SW720899:SY720899 ACS720899:ACU720899 AMO720899:AMQ720899 AWK720899:AWM720899 BGG720899:BGI720899 BQC720899:BQE720899 BZY720899:CAA720899 CJU720899:CJW720899 CTQ720899:CTS720899 DDM720899:DDO720899 DNI720899:DNK720899 DXE720899:DXG720899 EHA720899:EHC720899 EQW720899:EQY720899 FAS720899:FAU720899 FKO720899:FKQ720899 FUK720899:FUM720899 GEG720899:GEI720899 GOC720899:GOE720899 GXY720899:GYA720899 HHU720899:HHW720899 HRQ720899:HRS720899 IBM720899:IBO720899 ILI720899:ILK720899 IVE720899:IVG720899 JFA720899:JFC720899 JOW720899:JOY720899 JYS720899:JYU720899 KIO720899:KIQ720899 KSK720899:KSM720899 LCG720899:LCI720899 LMC720899:LME720899 LVY720899:LWA720899 MFU720899:MFW720899 MPQ720899:MPS720899 MZM720899:MZO720899 NJI720899:NJK720899 NTE720899:NTG720899 ODA720899:ODC720899 OMW720899:OMY720899 OWS720899:OWU720899 PGO720899:PGQ720899 PQK720899:PQM720899 QAG720899:QAI720899 QKC720899:QKE720899 QTY720899:QUA720899 RDU720899:RDW720899 RNQ720899:RNS720899 RXM720899:RXO720899 SHI720899:SHK720899 SRE720899:SRG720899 TBA720899:TBC720899 TKW720899:TKY720899 TUS720899:TUU720899 UEO720899:UEQ720899 UOK720899:UOM720899 UYG720899:UYI720899 VIC720899:VIE720899 VRY720899:VSA720899 WBU720899:WBW720899 WLQ720899:WLS720899 WVM720899:WVO720899 E786435:G786435 JA786435:JC786435 SW786435:SY786435 ACS786435:ACU786435 AMO786435:AMQ786435 AWK786435:AWM786435 BGG786435:BGI786435 BQC786435:BQE786435 BZY786435:CAA786435 CJU786435:CJW786435 CTQ786435:CTS786435 DDM786435:DDO786435 DNI786435:DNK786435 DXE786435:DXG786435 EHA786435:EHC786435 EQW786435:EQY786435 FAS786435:FAU786435 FKO786435:FKQ786435 FUK786435:FUM786435 GEG786435:GEI786435 GOC786435:GOE786435 GXY786435:GYA786435 HHU786435:HHW786435 HRQ786435:HRS786435 IBM786435:IBO786435 ILI786435:ILK786435 IVE786435:IVG786435 JFA786435:JFC786435 JOW786435:JOY786435 JYS786435:JYU786435 KIO786435:KIQ786435 KSK786435:KSM786435 LCG786435:LCI786435 LMC786435:LME786435 LVY786435:LWA786435 MFU786435:MFW786435 MPQ786435:MPS786435 MZM786435:MZO786435 NJI786435:NJK786435 NTE786435:NTG786435 ODA786435:ODC786435 OMW786435:OMY786435 OWS786435:OWU786435 PGO786435:PGQ786435 PQK786435:PQM786435 QAG786435:QAI786435 QKC786435:QKE786435 QTY786435:QUA786435 RDU786435:RDW786435 RNQ786435:RNS786435 RXM786435:RXO786435 SHI786435:SHK786435 SRE786435:SRG786435 TBA786435:TBC786435 TKW786435:TKY786435 TUS786435:TUU786435 UEO786435:UEQ786435 UOK786435:UOM786435 UYG786435:UYI786435 VIC786435:VIE786435 VRY786435:VSA786435 WBU786435:WBW786435 WLQ786435:WLS786435 WVM786435:WVO786435 E851971:G851971 JA851971:JC851971 SW851971:SY851971 ACS851971:ACU851971 AMO851971:AMQ851971 AWK851971:AWM851971 BGG851971:BGI851971 BQC851971:BQE851971 BZY851971:CAA851971 CJU851971:CJW851971 CTQ851971:CTS851971 DDM851971:DDO851971 DNI851971:DNK851971 DXE851971:DXG851971 EHA851971:EHC851971 EQW851971:EQY851971 FAS851971:FAU851971 FKO851971:FKQ851971 FUK851971:FUM851971 GEG851971:GEI851971 GOC851971:GOE851971 GXY851971:GYA851971 HHU851971:HHW851971 HRQ851971:HRS851971 IBM851971:IBO851971 ILI851971:ILK851971 IVE851971:IVG851971 JFA851971:JFC851971 JOW851971:JOY851971 JYS851971:JYU851971 KIO851971:KIQ851971 KSK851971:KSM851971 LCG851971:LCI851971 LMC851971:LME851971 LVY851971:LWA851971 MFU851971:MFW851971 MPQ851971:MPS851971 MZM851971:MZO851971 NJI851971:NJK851971 NTE851971:NTG851971 ODA851971:ODC851971 OMW851971:OMY851971 OWS851971:OWU851971 PGO851971:PGQ851971 PQK851971:PQM851971 QAG851971:QAI851971 QKC851971:QKE851971 QTY851971:QUA851971 RDU851971:RDW851971 RNQ851971:RNS851971 RXM851971:RXO851971 SHI851971:SHK851971 SRE851971:SRG851971 TBA851971:TBC851971 TKW851971:TKY851971 TUS851971:TUU851971 UEO851971:UEQ851971 UOK851971:UOM851971 UYG851971:UYI851971 VIC851971:VIE851971 VRY851971:VSA851971 WBU851971:WBW851971 WLQ851971:WLS851971 WVM851971:WVO851971 E917507:G917507 JA917507:JC917507 SW917507:SY917507 ACS917507:ACU917507 AMO917507:AMQ917507 AWK917507:AWM917507 BGG917507:BGI917507 BQC917507:BQE917507 BZY917507:CAA917507 CJU917507:CJW917507 CTQ917507:CTS917507 DDM917507:DDO917507 DNI917507:DNK917507 DXE917507:DXG917507 EHA917507:EHC917507 EQW917507:EQY917507 FAS917507:FAU917507 FKO917507:FKQ917507 FUK917507:FUM917507 GEG917507:GEI917507 GOC917507:GOE917507 GXY917507:GYA917507 HHU917507:HHW917507 HRQ917507:HRS917507 IBM917507:IBO917507 ILI917507:ILK917507 IVE917507:IVG917507 JFA917507:JFC917507 JOW917507:JOY917507 JYS917507:JYU917507 KIO917507:KIQ917507 KSK917507:KSM917507 LCG917507:LCI917507 LMC917507:LME917507 LVY917507:LWA917507 MFU917507:MFW917507 MPQ917507:MPS917507 MZM917507:MZO917507 NJI917507:NJK917507 NTE917507:NTG917507 ODA917507:ODC917507 OMW917507:OMY917507 OWS917507:OWU917507 PGO917507:PGQ917507 PQK917507:PQM917507 QAG917507:QAI917507 QKC917507:QKE917507 QTY917507:QUA917507 RDU917507:RDW917507 RNQ917507:RNS917507 RXM917507:RXO917507 SHI917507:SHK917507 SRE917507:SRG917507 TBA917507:TBC917507 TKW917507:TKY917507 TUS917507:TUU917507 UEO917507:UEQ917507 UOK917507:UOM917507 UYG917507:UYI917507 VIC917507:VIE917507 VRY917507:VSA917507 WBU917507:WBW917507 WLQ917507:WLS917507 WVM917507:WVO917507 E983043:G983043 JA983043:JC983043 SW983043:SY983043 ACS983043:ACU983043 AMO983043:AMQ983043 AWK983043:AWM983043 BGG983043:BGI983043 BQC983043:BQE983043 BZY983043:CAA983043 CJU983043:CJW983043 CTQ983043:CTS983043 DDM983043:DDO983043 DNI983043:DNK983043 DXE983043:DXG983043 EHA983043:EHC983043 EQW983043:EQY983043 FAS983043:FAU983043 FKO983043:FKQ983043 FUK983043:FUM983043 GEG983043:GEI983043 GOC983043:GOE983043 GXY983043:GYA983043 HHU983043:HHW983043 HRQ983043:HRS983043 IBM983043:IBO983043 ILI983043:ILK983043 IVE983043:IVG983043 JFA983043:JFC983043 JOW983043:JOY983043 JYS983043:JYU983043 KIO983043:KIQ983043 KSK983043:KSM983043 LCG983043:LCI983043 LMC983043:LME983043 LVY983043:LWA983043 MFU983043:MFW983043 MPQ983043:MPS983043 MZM983043:MZO983043 NJI983043:NJK983043 NTE983043:NTG983043 ODA983043:ODC983043 OMW983043:OMY983043 OWS983043:OWU983043 PGO983043:PGQ983043 PQK983043:PQM983043 QAG983043:QAI983043 QKC983043:QKE983043 QTY983043:QUA983043 RDU983043:RDW983043 RNQ983043:RNS983043 RXM983043:RXO983043 SHI983043:SHK983043 SRE983043:SRG983043 TBA983043:TBC983043 TKW983043:TKY983043 TUS983043:TUU983043 UEO983043:UEQ983043 UOK983043:UOM983043 UYG983043:UYI983043 VIC983043:VIE983043 VRY983043:VSA983043 WBU983043:WBW983043 WLQ983043:WLS983043 WVM983043:WVO983043" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1966,7 +2036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2019,41 +2089,41 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
     </row>
     <row r="6" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8"/>
@@ -2212,19 +2282,19 @@
       <c r="A36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="20"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="36"/>
     </row>
     <row r="37" spans="1:4" ht="16.5" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="20"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="36"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="7"/>
@@ -2281,14 +2351,14 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E1" location="测试用例!A1" display="&lt;&lt;返回"/>
+    <hyperlink ref="E1" location="测试用例!A1" display="&lt;&lt;返回" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
